--- a/FeatureSet.xlsx
+++ b/FeatureSet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="84">
   <si>
     <t>MeanReactTime</t>
   </si>
@@ -204,9 +204,6 @@
     <t>WO_LIN_RF</t>
   </si>
   <si>
-    <t>WO_QUAD_LASSO</t>
-  </si>
-  <si>
     <t>WO_QUAD_RF</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>WO Rank</t>
-  </si>
-  <si>
-    <t>Top 10</t>
   </si>
   <si>
     <t>UEFM</t>
@@ -246,34 +240,40 @@
     <t>Months after stroke</t>
   </si>
   <si>
-    <t>Mean Hand Path Length</t>
-  </si>
-  <si>
-    <t>Mean Path Length Ratio</t>
-  </si>
-  <si>
-    <t>EA Treatment</t>
-  </si>
-  <si>
     <t>Initial Wolf Score</t>
   </si>
   <si>
-    <t>Dominant side is affected</t>
+    <t>Dominant Side Affected</t>
   </si>
   <si>
-    <t>Unknown stroke location</t>
+    <t>Mean PMTD</t>
   </si>
   <si>
-    <t>Left side affected</t>
+    <t>Mean Pre Movement Speed</t>
   </si>
   <si>
-    <t>Mean Percent of movement in target direction</t>
+    <t>Max Max Speed</t>
   </si>
   <si>
-    <t>Variance of mean arrest period ratio</t>
+    <t>Variance PMTD</t>
   </si>
   <si>
-    <t>Variance of max perpendicular distance</t>
+    <t>Initial Box and Blocks</t>
+  </si>
+  <si>
+    <t>Subcortical Stroke</t>
+  </si>
+  <si>
+    <t>Variance Initial Direction Error</t>
+  </si>
+  <si>
+    <t>Mean Max Perp Distance</t>
+  </si>
+  <si>
+    <t>Max PMTD</t>
+  </si>
+  <si>
+    <t>Intial Fugl-Meyer</t>
   </si>
 </sst>
 </file>
@@ -772,14 +772,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,6 +854,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1128,169 +1130,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.191375338662059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0540381116757374</c:v>
+                  <c:v>12.773747470298963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.789488295875854</c:v>
+                  <c:v>12.294533298239889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6366744331201328</c:v>
+                  <c:v>7.3459478798129361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1800401282227035</c:v>
+                  <c:v>5.8485265454620405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3086842910598087</c:v>
+                  <c:v>10.237643807433482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.026761683675099</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.203117788167507</c:v>
+                  <c:v>12.617368582119616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3086842910598087</c:v>
+                  <c:v>9.8632191527980595</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6706214794855496</c:v>
+                  <c:v>5.3049500053196148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.137152491174284</c:v>
+                  <c:v>14.64245514017777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.634632397609993</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.617368582119616</c:v>
+                  <c:v>14.191375338662059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3822561845112675</c:v>
+                  <c:v>7.5654710418464202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.714807235018933</c:v>
+                  <c:v>14.101835378067586</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.609900010639228</c:v>
+                  <c:v>9.4903446720117408</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.504969820138363</c:v>
+                  <c:v>13.525021797879431</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9218268851468743</c:v>
+                  <c:v>8.4918210949877988</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.280183036403857</c:v>
+                  <c:v>13.548605186119353</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.438353462034664</c:v>
+                  <c:v>12.968822935526148</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.055173868372018</c:v>
+                  <c:v>14.191375338662059</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1680492684314414</c:v>
+                  <c:v>8.4055985468390499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>12.543033266095447</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.352361862541642</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.445356401200556</c:v>
+                  <c:v>11.933476649800895</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.994420624007962</c:v>
+                  <c:v>10.03481773633148</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.5227366699756111</c:v>
+                  <c:v>3.0274001040350909</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.739926952885424</c:v>
+                  <c:v>9.4903446720117408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.558244897080778</c:v>
+                  <c:v>14.64245514017777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.25706687734967</c:v>
+                  <c:v>14.365535223688607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.2390685756284707</c:v>
+                  <c:v>12.823355189994379</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.261558002988895</c:v>
+                  <c:v>11.062389810806112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.8502698827717978</c:v>
+                  <c:v>1.8612097182041991</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8284271247461898</c:v>
+                  <c:v>3.363585661014858</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.4465396306629996</c:v>
+                  <c:v>5.531194905403054</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.843224043318139</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.1180282278191118</c:v>
+                  <c:v>14.64245514017777</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>7.8222908513499698</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3784142300054421</c:v>
+                  <c:v>3.363585661014858</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>9.9959975977575315</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.401079531087193</c:v>
+                  <c:v>14.853192105746254</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12</c:v>
+                  <c:v>9.1703426417181664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>10.294713711217723</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.8989794855663567</c:v>
+                  <c:v>4.9979987988787666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.3245553203367582</c:v>
+                  <c:v>11.518028981306477</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13.558244897080778</c:v>
+                  <c:v>13.421374146754248</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.963413684026666</c:v>
+                  <c:v>13.132573590065306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.1599513019236145</c:v>
+                  <c:v>10.459366837883579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,7 +1308,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ranks!$L$1</c:f>
+              <c:f>Ranks!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1529,174 +1531,174 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ranks!$L$2:$L$60</c:f>
+              <c:f>Ranks!$K$2:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>7.6135081916786387</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.386739023417503</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.842854946580051</c:v>
+                  <c:v>6.3825042988599074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4375578480948503</c:v>
+                  <c:v>2.9624960684073702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1919769884392846</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.313361421100087</c:v>
+                  <c:v>6.5421326203771786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.18698301182925</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.019940278469184</c:v>
+                  <c:v>5.7689982812296323</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.999886206972</c:v>
+                  <c:v>6.5421326203771786</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0851677179897825</c:v>
+                  <c:v>6.9658197678826168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.64114102733582</c:v>
+                  <c:v>4.379519139887889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.281390285856145</c:v>
+                  <c:v>4.0412400206221895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7297785857784191</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6135081916786387</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.386739023417503</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4506972662277118</c:v>
+                  <c:v>5.0657970191008852</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.386739023417503</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.088886742658849</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.363543090585118</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.508431465410183</c:v>
+                  <c:v>5.3832126120872834</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.363543090585118</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.705097960612408</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9989998499649921</c:v>
+                  <c:v>5.2414827884177937</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.6209922421364151</c:v>
+                  <c:v>4.379519139887889</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.170335435979567</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.386739023417503</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0851677179897825</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.257275038720314</c:v>
+                  <c:v>4.3088693800637659</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.745706103249544</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.453521380961204</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.4257318612210419</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.019940278469184</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.28180927925918</c:v>
+                  <c:v>5.6670511080970627</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.3246051110562647</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.4581322018782652</c:v>
+                  <c:v>6.7533134166938185</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7005397655435965</c:v>
+                  <c:v>5.2414827884177937</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8447967111987236</c:v>
+                  <c:v>3.7325111568172487</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.5270190558378696</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.8030092608030079</c:v>
+                  <c:v>6.3163595976563789</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.8645985581955742</c:v>
+                  <c:v>5.1924941018511026</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.386739023417503</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.915784271057898</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.0503047758503286</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.573076674740635</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.8067540958393198</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.9428309563827115</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.097757271982504</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.7368757062242439</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.903226073588703</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12.599407869573689</c:v>
+                  <c:v>4.2726586816979166</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.172960722619644</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8284928691481337</c:v>
+                  <c:v>7.1400369819215568</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.33842897770735</c:v>
+                  <c:v>4.4479601811386313</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.5064804743502567</c:v>
+                  <c:v>3.8258623655447783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,6 +1837,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2457,7 +2460,7 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112711</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -7348,11 +7351,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7364,117 +7367,109 @@
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1"/>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <f>(B2*C2*D2*E2)^(1/4)</f>
-        <v>13.963413684026666</v>
+        <v>14.191375338662059</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <f>(H2*I2*J2*K2)^(1/4)</f>
-        <v>7.6135081916786387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>(H2*I2*J2)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F56" si="0">(B3*C3*D3*E3)^(1/4)</f>
-        <v>9.0540381116757374</v>
+        <v>12.773747470298963</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L56" si="1">(H3*I3*J3*K3)^(1/4)</f>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K3:K56" si="1">(H3*I3*J3)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7485,33 +7480,30 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>10.789488295875854</v>
+        <v>12.294533298239889</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>12</v>
-      </c>
-      <c r="L4">
         <f t="shared" si="1"/>
-        <v>13.842854946580051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.3825042988599074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7522,144 +7514,132 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>9.6366744331201328</v>
+        <v>7.3459478798129361</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
         <f t="shared" si="1"/>
-        <v>7.4375578480948503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.9624960684073702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>5.1800401282227035</v>
+        <v>5.8485265454620405</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>14</v>
-      </c>
-      <c r="L6">
         <f t="shared" si="1"/>
-        <v>6.1919769884392846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6.3086842910598087</v>
+        <v>10.237643807433482</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
         <f t="shared" si="1"/>
-        <v>13.313361421100087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.5421326203771786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>11.026761683675099</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>14</v>
-      </c>
-      <c r="L8">
         <f t="shared" si="1"/>
-        <v>13.18698301182925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7670,75 +7650,69 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>12.203117788167507</v>
+        <v>12.617368582119616</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>12</v>
       </c>
-      <c r="I9">
-        <v>14</v>
-      </c>
       <c r="J9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
         <f t="shared" si="1"/>
-        <v>10.019940278469184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.7689982812296323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>6.3086842910598087</v>
+        <v>9.8632191527980595</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>14</v>
-      </c>
-      <c r="L10">
         <f t="shared" si="1"/>
-        <v>12.999886206972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.5421326203771786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -7747,35 +7721,32 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K11">
-        <v>14</v>
-      </c>
-      <c r="L11">
         <f t="shared" si="1"/>
-        <v>7.0851677179897825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.9658197678826168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -7784,30 +7755,27 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>15</v>
-      </c>
       <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
         <f t="shared" si="1"/>
-        <v>9.64114102733582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.379519139887889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7818,75 +7786,69 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>6.6706214794855496</v>
+        <v>5.3049500053196148</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>14</v>
-      </c>
-      <c r="L13">
         <f t="shared" si="1"/>
-        <v>4.281390285856145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.0412400206221895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>10.137152491174284</v>
+        <v>14.64245514017777</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>14</v>
-      </c>
-      <c r="L14">
         <f t="shared" si="1"/>
-        <v>7.7297785857784191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -7895,35 +7857,32 @@
         <v>18</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15">
         <f t="shared" si="1"/>
-        <v>7.6135081916786387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -7932,72 +7891,66 @@
         <v>18</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>13.634632397609993</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>14</v>
-      </c>
-      <c r="L16">
         <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>12.617368582119616</v>
+        <v>14.191375338662059</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
       <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
         <f t="shared" si="1"/>
-        <v>8.4506972662277118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.0657970191008852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -8006,30 +7959,27 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>14</v>
-      </c>
-      <c r="L18">
         <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -8037,189 +7987,174 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>7.3822561845112675</v>
+        <v>7.5654710418464202</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K19">
-        <v>14</v>
-      </c>
-      <c r="L19">
         <f t="shared" si="1"/>
-        <v>11.088886742658849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>12.714807235018933</v>
+        <v>14.101835378067586</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20">
-        <v>14</v>
-      </c>
-      <c r="L20">
         <f t="shared" si="1"/>
-        <v>7.363543090585118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>10.609900010639228</v>
+        <v>9.4903446720117408</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>8</v>
-      </c>
-      <c r="L21">
         <f t="shared" si="1"/>
-        <v>12.508431465410183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.3832126120872834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>13.504969820138363</v>
+        <v>13.525021797879431</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22">
         <v>14</v>
       </c>
       <c r="K22">
-        <v>14</v>
-      </c>
-      <c r="L22">
         <f t="shared" si="1"/>
-        <v>7.363543090585118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>8.9218268851468743</v>
+        <v>8.4918210949877988</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23">
         <v>14</v>
       </c>
       <c r="K23">
-        <v>14</v>
-      </c>
-      <c r="L23">
         <f t="shared" si="1"/>
-        <v>13.705097960612408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -8232,31 +8167,28 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>13.280183036403857</v>
+        <v>13.548605186119353</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
         <v>12</v>
       </c>
-      <c r="I24">
-        <v>7</v>
-      </c>
-      <c r="J24">
-        <v>17</v>
-      </c>
       <c r="K24">
-        <v>7</v>
-      </c>
-      <c r="L24">
         <f t="shared" si="1"/>
-        <v>9.9989998499649921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.2414827884177937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -8265,30 +8197,27 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K25">
-        <v>14</v>
-      </c>
-      <c r="L25">
         <f t="shared" si="1"/>
-        <v>9.6209922421364151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.379519139887889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -8302,141 +8231,129 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>12.438353462034664</v>
+        <v>12.968822935526148</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26">
-        <v>14</v>
-      </c>
-      <c r="L26">
         <f t="shared" si="1"/>
-        <v>14.170335435979567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>12.055173868372018</v>
+        <v>14.191375338662059</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K27">
-        <v>14</v>
-      </c>
-      <c r="L27">
         <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>7.1680492684314414</v>
+        <v>8.4055985468390499</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K28">
-        <v>14</v>
-      </c>
-      <c r="L28">
         <f t="shared" si="1"/>
-        <v>7.0851677179897825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>12.543033266095447</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
         <f t="shared" si="1"/>
-        <v>9.257275038720314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.3088693800637659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -8447,112 +8364,103 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.352361862541642</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K30">
-        <v>14</v>
-      </c>
-      <c r="L30">
         <f t="shared" si="1"/>
-        <v>13.745706103249544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>11.445356401200556</v>
+        <v>11.933476649800895</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31">
-        <v>14</v>
-      </c>
-      <c r="L31">
         <f t="shared" si="1"/>
-        <v>13.453521380961204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>12.994420624007962</v>
+        <v>10.03481773633148</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K32">
-        <v>14</v>
-      </c>
-      <c r="L32">
         <f t="shared" si="1"/>
-        <v>8.4257318612210419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -8561,30 +8469,27 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K33">
-        <v>14</v>
-      </c>
-      <c r="L33">
         <f t="shared" si="1"/>
-        <v>10.019940278469184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -8598,178 +8503,163 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>3.5227366699756111</v>
+        <v>3.0274001040350909</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34">
         <f t="shared" si="1"/>
-        <v>11.28180927925918</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.6670511080970627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35">
         <v>12</v>
       </c>
-      <c r="C35">
-        <v>15</v>
-      </c>
       <c r="D35">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>13.739926952885424</v>
+        <v>9.4903446720117408</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K35">
-        <v>14</v>
-      </c>
-      <c r="L35">
         <f t="shared" si="1"/>
-        <v>9.3246051110562647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>13.558244897080778</v>
+        <v>14.64245514017777</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K36">
-        <v>14</v>
-      </c>
-      <c r="L36">
         <f t="shared" si="1"/>
-        <v>7.4581322018782652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.7533134166938185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>13.25706687734967</v>
+        <v>14.365535223688607</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>8</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>11</v>
-      </c>
-      <c r="L37">
         <f t="shared" si="1"/>
-        <v>5.7005397655435965</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.2414827884177937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>8.2390685756284707</v>
+        <v>12.823355189994379</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J38">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
         <f t="shared" si="1"/>
-        <v>8.8447967111987236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.7325111568172487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -8780,33 +8670,30 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>10.261558002988895</v>
+        <v>11.062389810806112</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K39">
-        <v>14</v>
-      </c>
-      <c r="L39">
         <f t="shared" si="1"/>
-        <v>4.5270190558378696</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -8817,33 +8704,30 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>2.8502698827717978</v>
+        <v>1.8612097182041991</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>9</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K40">
-        <v>14</v>
-      </c>
-      <c r="L40">
         <f t="shared" si="1"/>
-        <v>5.8030092608030079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.3163595976563789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -8854,38 +8738,35 @@
         <v>16</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>2.8284271247461898</v>
+        <v>3.363585661014858</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>5</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K41">
-        <v>14</v>
-      </c>
-      <c r="L41">
         <f t="shared" si="1"/>
-        <v>4.8645985581955742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.1924941018511026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -8894,72 +8775,66 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J42">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K42">
-        <v>14</v>
-      </c>
-      <c r="L42">
         <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>5.4465396306629996</v>
+        <v>5.531194905403054</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K43">
-        <v>14</v>
-      </c>
-      <c r="L43">
         <f t="shared" si="1"/>
-        <v>11.915784271057898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -8968,72 +8843,66 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>10.843224043318139</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K44">
-        <v>14</v>
-      </c>
-      <c r="L44">
         <f t="shared" si="1"/>
-        <v>8.0503047758503286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>16</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>9.1180282278191118</v>
+        <v>14.64245514017777</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J45">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K45">
-        <v>14</v>
-      </c>
-      <c r="L45">
         <f t="shared" si="1"/>
-        <v>12.573076674740635</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -9042,30 +8911,27 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>7.8222908513499698</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K46">
-        <v>14</v>
-      </c>
-      <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.8067540958393198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -9079,146 +8945,134 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>2.3784142300054421</v>
+        <v>3.363585661014858</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
         <f t="shared" si="1"/>
-        <v>2.9428309563827115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>9.9959975977575315</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J48">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K48">
-        <v>14</v>
-      </c>
-      <c r="L48">
         <f t="shared" si="1"/>
-        <v>12.097757271982504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>16</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>11.401079531087193</v>
+        <v>14.853192105746254</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K49">
-        <v>13</v>
-      </c>
-      <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.7368757062242439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>16</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9.1703426417181664</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K50">
-        <v>14</v>
-      </c>
-      <c r="L50">
         <f t="shared" si="1"/>
-        <v>12.903226073588703</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>16</v>
@@ -9227,30 +9081,27 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>10.294713711217723</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K51">
-        <v>14</v>
-      </c>
-      <c r="L51">
         <f t="shared" si="1"/>
-        <v>12.599407869573689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.2726586816979166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9261,33 +9112,30 @@
         <v>16</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>4.8989794855663567</v>
+        <v>4.9979987988787666</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K52">
-        <v>14</v>
-      </c>
-      <c r="L52">
         <f t="shared" si="1"/>
-        <v>10.172960722619644</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9298,33 +9146,30 @@
         <v>16</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>6.3245553203367582</v>
+        <v>11.518028981306477</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K53">
-        <v>9</v>
-      </c>
-      <c r="L53">
         <f t="shared" si="1"/>
-        <v>8.8284928691481337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9335,51 +9180,48 @@
         <v>16</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>13.558244897080778</v>
+        <v>13.421374146754248</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>4</v>
       </c>
       <c r="J54">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K54">
-        <v>14</v>
-      </c>
-      <c r="L54">
         <f t="shared" si="1"/>
-        <v>10.33842897770735</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.4479601811386313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>16</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>13.963413684026666</v>
+        <v>13.132573590065306</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -9391,48 +9233,42 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>16</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>11</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>9.1599513019236145</v>
+        <v>10.459366837883579</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K56">
-        <v>14</v>
-      </c>
-      <c r="L56">
         <f t="shared" si="1"/>
-        <v>8.5064804743502567</v>
+        <v>3.8258623655447783</v>
       </c>
     </row>
   </sheetData>
@@ -9447,7 +9283,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K19"/>
+      <selection activeCell="J6" sqref="J6:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9457,110 +9293,108 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
+      <c r="F1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">(B2*C2*D2*E2)^(1/4)</f>
-        <v>2.3784142300054421</v>
+        <f>(B2*C2*D2*E2)^(1/4)</f>
+        <v>1.8612097182041991</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>2.8284271247461898</v>
+        <f>(B3*C3*D3*E3)^(1/4)</f>
+        <v>3.0274001040350909</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>2.8502698827717978</v>
+        <f>(B4*C4*D4*E4)^(1/4)</f>
+        <v>3.363585661014858</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3.5227366699756111</v>
+        <f>(B5*C5*D5*E5)^(1/4)</f>
+        <v>3.363585661014858</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9574,35 +9408,35 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4.8989794855663567</v>
+        <f>(B6*C6*D6*E6)^(1/4)</f>
+        <v>4.9979987988787666</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>5.1800401282227035</v>
+        <f>(B7*C7*D7*E7)^(1/4)</f>
+        <v>5.3049500053196148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9610,104 +9444,104 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>5.4465396306629996</v>
+        <f>(B8*C8*D8*E8)^(1/4)</f>
+        <v>5.531194905403054</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>6.3086842910598087</v>
+        <f>(B9*C9*D9*E9)^(1/4)</f>
+        <v>5.8485265454620405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>6.3086842910598087</v>
+        <f>(B10*C10*D10*E10)^(1/4)</f>
+        <v>7.3459478798129361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>6.3245553203367582</v>
+        <f>(B11*C11*D11*E11)^(1/4)</f>
+        <v>7.5654710418464202</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>6.6706214794855496</v>
+        <f>(B12*C12*D12*E12)^(1/4)</f>
+        <v>7.8222908513499698</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9715,133 +9549,133 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>7.1680492684314414</v>
+        <f>(B13*C13*D13*E13)^(1/4)</f>
+        <v>8.4055985468390499</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
       <c r="E14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>7.3822561845112675</v>
+        <f>(B14*C14*D14*E14)^(1/4)</f>
+        <v>8.4918210949877988</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>8.2390685756284707</v>
+        <f>(B15*C15*D15*E15)^(1/4)</f>
+        <v>9.1703426417181664</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>8.9218268851468743</v>
+        <f>(B16*C16*D16*E16)^(1/4)</f>
+        <v>9.4903446720117408</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>9.0540381116757374</v>
+        <f>(B17*C17*D17*E17)^(1/4)</f>
+        <v>9.4903446720117408</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>9.1180282278191118</v>
+        <f>(B18*C18*D18*E18)^(1/4)</f>
+        <v>9.8632191527980595</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -9850,263 +9684,263 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>9.1599513019236145</v>
+        <f>(B19*C19*D19*E19)^(1/4)</f>
+        <v>9.9959975977575315</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>9.6366744331201328</v>
+        <f>(B20*C20*D20*E20)^(1/4)</f>
+        <v>10.03481773633148</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>10.137152491174284</v>
+        <f>(B21*C21*D21*E21)^(1/4)</f>
+        <v>10.237643807433482</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>10.261558002988895</v>
+        <f>(B22*C22*D22*E22)^(1/4)</f>
+        <v>10.294713711217723</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>10.609900010639228</v>
+        <f>(B23*C23*D23*E23)^(1/4)</f>
+        <v>10.459366837883579</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
         <v>16</v>
       </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
       <c r="E24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>10.789488295875854</v>
+        <f>(B24*C24*D24*E24)^(1/4)</f>
+        <v>11.062389810806112</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>16</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>10.843224043318139</v>
+        <f>(B25*C25*D25*E25)^(1/4)</f>
+        <v>11.518028981306477</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
         <v>12</v>
       </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
       <c r="E26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>11.026761683675099</v>
+        <f>(B26*C26*D26*E26)^(1/4)</f>
+        <v>11.933476649800895</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>11.401079531087193</v>
+        <f>(B27*C27*D27*E27)^(1/4)</f>
+        <v>12.294533298239889</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>11.445356401200556</v>
+        <f>(B28*C28*D28*E28)^(1/4)</f>
+        <v>12.543033266095447</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>(B29*C29*D29*E29)^(1/4)</f>
+        <v>12.617368582119616</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>16</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>12.055173868372018</v>
+        <f>(B30*C30*D30*E30)^(1/4)</f>
+        <v>12.773747470298963</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>16</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>12.203117788167507</v>
+        <f>(B31*C31*D31*E31)^(1/4)</f>
+        <v>12.823355189994379</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10123,184 +9957,184 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>12.438353462034664</v>
+        <f>(B32*C32*D32*E32)^(1/4)</f>
+        <v>12.968822935526148</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>16</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>12.617368582119616</v>
+        <f>(B33*C33*D33*E33)^(1/4)</f>
+        <v>13.132573590065306</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="1">(B34*C34*D34*E34)^(1/4)</f>
-        <v>12.714807235018933</v>
+        <f>(B34*C34*D34*E34)^(1/4)</f>
+        <v>13.421374146754248</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>12.994420624007962</v>
+        <f>(B35*C35*D35*E35)^(1/4)</f>
+        <v>13.525021797879431</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>18</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>13.25706687734967</v>
+        <f>(B36*C36*D36*E36)^(1/4)</f>
+        <v>13.548605186119353</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>13.280183036403857</v>
+        <f>(B37*C37*D37*E37)^(1/4)</f>
+        <v>14.101835378067586</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>13.504969820138363</v>
+        <f>(B38*C38*D38*E38)^(1/4)</f>
+        <v>14.191375338662059</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>13.558244897080778</v>
+        <f>(B39*C39*D39*E39)^(1/4)</f>
+        <v>14.191375338662059</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>16</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>13.558244897080778</v>
+        <f>(B40*C40*D40*E40)^(1/4)</f>
+        <v>14.191375338662059</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -10309,106 +10143,106 @@
         <v>16</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>13.634632397609993</v>
+        <f>(B41*C41*D41*E41)^(1/4)</f>
+        <v>14.352361862541642</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>18</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>13.739926952885424</v>
+        <f>(B42*C42*D42*E42)^(1/4)</f>
+        <v>14.365535223688607</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B43*C43*D43*E43)^(1/4)</f>
+        <v>14.64245514017777</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B44*C44*D44*E44)^(1/4)</f>
+        <v>14.64245514017777</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>16</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B45*C45*D45*E45)^(1/4)</f>
+        <v>14.64245514017777</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -10417,19 +10251,19 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B46*C46*D46*E46)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -10438,19 +10272,19 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B47*C47*D47*E47)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>16</v>
@@ -10459,19 +10293,19 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B48*C48*D48*E48)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -10480,19 +10314,19 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B49*C49*D49*E49)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>16</v>
@@ -10501,19 +10335,19 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B50*C50*D50*E50)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>16</v>
@@ -10522,19 +10356,19 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B51*C51*D51*E51)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -10543,19 +10377,19 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B52*C52*D52*E52)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -10564,19 +10398,19 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B53*C53*D53*E53)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>16</v>
@@ -10585,19 +10419,19 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B54*C54*D54*E54)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>16</v>
@@ -10606,19 +10440,19 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B55*C55*D55*E55)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -10627,11 +10461,11 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>13.963413684026666</v>
+        <f>(B56*C56*D56*E56)^(1/4)</f>
+        <v>14.853192105746254</v>
       </c>
     </row>
   </sheetData>
@@ -10648,7 +10482,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10656,29 +10490,25 @@
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10694,74 +10524,62 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">(B2*C2*D2*E2)^(1/4)</f>
+        <f>(B2*C2*D2)^(1/3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>2.9428309563827115</v>
+        <f>(B3*C3*D3)^(1/3)</f>
+        <v>2.9624960684073702</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>3.7368757062242439</v>
+        <f>(B4*C4*D4)^(1/3)</f>
+        <v>3.7325111568172487</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3.8067540958393198</v>
+        <f>(B5*C5*D5)^(1/3)</f>
+        <v>3.8258623655447783</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10769,1175 +10587,988 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4.281390285856145</v>
+        <f>(B6*C6*D6)^(1/3)</f>
+        <v>4.0412400206221895</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4.5270190558378696</v>
+        <f>(B7*C7*D7)^(1/3)</f>
+        <v>4.2726586816979166</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4.8645985581955742</v>
+        <f>(B8*C8*D8)^(1/3)</f>
+        <v>4.3088693800637659</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>5.7005397655435965</v>
+        <f>(B9*C9*D9)^(1/3)</f>
+        <v>4.379519139887889</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>5.8030092608030079</v>
+        <f>(B10*C10*D10)^(1/3)</f>
+        <v>4.379519139887889</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
       <c r="D11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>6.1919769884392846</v>
+        <f>(B11*C11*D11)^(1/3)</f>
+        <v>4.4479601811386313</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>7.0851677179897825</v>
+        <f>(B12*C12*D12)^(1/3)</f>
+        <v>5.0657970191008852</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>7.0851677179897825</v>
+        <f>(B13*C13*D13)^(1/3)</f>
+        <v>5.1924941018511026</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>7.363543090585118</v>
+        <f>(B14*C14*D14)^(1/3)</f>
+        <v>5.2414827884177937</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>7.363543090585118</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>65</v>
+        <f>(B15*C15*D15)^(1/3)</f>
+        <v>5.2414827884177937</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>7.4375578480948503</v>
-      </c>
-      <c r="I16" s="4"/>
+        <f>(B16*C16*D16)^(1/3)</f>
+        <v>5.3832126120872834</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>7.4581322018782652</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" t="s">
-        <v>77</v>
+        <f>(B17*C17*D17)^(1/3)</f>
+        <v>5.6670511080970627</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>7.6135081916786387</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
+        <f>(B18*C18*D18)^(1/3)</f>
+        <v>5.7689982812296323</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K18" t="s">
-        <v>78</v>
+      <c r="K18" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>7.6135081916786387</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" t="s">
-        <v>79</v>
+        <f>(B19*C19*D19)^(1/3)</f>
+        <v>6.3163595976563789</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>7.7297785857784191</v>
-      </c>
-      <c r="I20" s="4">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" t="s">
-        <v>80</v>
+        <f>(B20*C20*D20)^(1/3)</f>
+        <v>6.3825042988599074</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
       <c r="D21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>8.0503047758503286</v>
-      </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" t="s">
-        <v>81</v>
+        <f>(B21*C21*D21)^(1/3)</f>
+        <v>6.5421326203771786</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>8.4257318612210419</v>
-      </c>
-      <c r="I22" s="4">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" t="s">
-        <v>82</v>
+        <f>(B22*C22*D22)^(1/3)</f>
+        <v>6.5421326203771786</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>8.4506972662277118</v>
-      </c>
-      <c r="I23" s="4">
-        <v>7</v>
-      </c>
-      <c r="J23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s">
-        <v>68</v>
+        <f>(B23*C23*D23)^(1/3)</f>
+        <v>6.7533134166938185</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>8.5064804743502567</v>
-      </c>
-      <c r="I24" s="4">
-        <v>8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" t="s">
-        <v>83</v>
+        <f>(B24*C24*D24)^(1/3)</f>
+        <v>6.9658197678826168</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>8.8284928691481337</v>
-      </c>
-      <c r="I25" s="4">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
+        <f>(B25*C25*D25)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K25" t="s">
-        <v>69</v>
+      <c r="K25" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>8.8447967111987236</v>
-      </c>
-      <c r="I26" s="4">
-        <v>10</v>
-      </c>
-      <c r="J26" t="s">
+        <f>(B26*C26*D26)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
-        <v>72</v>
+      <c r="K26" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>9.257275038720314</v>
+        <f>(B27*C27*D27)^(1/3)</f>
+        <v>7.1400369819215568</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>9.3246051110562647</v>
+        <f>(B28*C28*D28)^(1/3)</f>
+        <v>7.1400369819215568</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>9.6209922421364151</v>
+        <f>(B29*C29*D29)^(1/3)</f>
+        <v>7.1400369819215568</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>9.64114102733582</v>
+        <f>(B30*C30*D30)^(1/3)</f>
+        <v>7.1400369819215568</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>9.9989998499649921</v>
+        <f>(B31*C31*D31)^(1/3)</f>
+        <v>7.1400369819215568</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
         <v>14</v>
       </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
       <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>10.019940278469184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(B32*C32*D32)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <f>(B33*C33*D33)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <f>(B34*C34*D34)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <f>(B35*C35*D35)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <f>(B36*C36*D36)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <f>(B37*C37*D37)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <f>(B38*C38*D38)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <f>(B39*C39*D39)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <f>(B40*C40*D40)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <f>(B41*C41*D41)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <f>(B42*C42*D42)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>15</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
         <v>14</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>10.019940278469184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>17</v>
-      </c>
-      <c r="E34">
+      <c r="E43">
+        <f>(B43*C43*D43)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
         <v>14</v>
       </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F65" si="1">(B34*C34*D34*E34)^(1/4)</f>
-        <v>10.172960722619644</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>17</v>
-      </c>
-      <c r="E35">
+      <c r="E44">
+        <f>(B44*C44*D44)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
         <v>14</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>10.33842897770735</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
+      <c r="E45">
+        <f>(B45*C45*D45)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
         <v>14</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>11.088886742658849</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>11.28180927925918</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E46">
+        <f>(B46*C46*D46)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
         <v>14</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>11.915784271057898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>17</v>
-      </c>
-      <c r="E39">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>12.097757271982504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>17</v>
-      </c>
-      <c r="E40">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>12.508431465410183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
-      <c r="E41">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>12.573076674740635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>14</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>12.599407869573689</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>11</v>
-      </c>
-      <c r="E43">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>12.903226073588703</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>17</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>12.999886206972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>13.18698301182925</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>17</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>13.313361421100087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>15</v>
-      </c>
-      <c r="D47">
-        <v>13</v>
-      </c>
       <c r="E47">
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>13.453521380961204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(B47*C47*D47)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>14</v>
       </c>
       <c r="E48">
+        <f>(B48*C48*D48)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
         <v>14</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>13.705097960612408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>17</v>
-      </c>
       <c r="E49">
+        <f>(B49*C49*D49)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
         <v>14</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>13.745706103249544</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>17</v>
-      </c>
       <c r="E50">
-        <v>12</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>13.842854946580051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(B50*C50*D50)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51">
+        <f>(B51*C51*D51)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
         <v>14</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>14.170335435979567</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>17</v>
-      </c>
       <c r="E52">
+        <f>(B52*C52*D52)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
         <v>14</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E53">
+        <f>(B53*C53*D53)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54">
         <v>14</v>
       </c>
-      <c r="B53">
-        <v>12</v>
-      </c>
-      <c r="C53">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>17</v>
-      </c>
-      <c r="E53">
+      <c r="E54">
+        <f>(B54*C54*D54)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D55">
         <v>14</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-      <c r="E54">
+      <c r="E55">
+        <f>(B55*C55*D55)^(1/3)</f>
+        <v>7.1400369819215568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56">
         <v>14</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>17</v>
-      </c>
-      <c r="E55">
-        <v>14</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>17</v>
-      </c>
       <c r="E56">
-        <v>14</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>14.386739023417503</v>
+        <f>(B56*C56*D56)^(1/3)</f>
+        <v>7.1400369819215568</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F60">
-    <sortCondition ref="F1"/>
+  <sortState ref="A2:E56">
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
